--- a/Testing/Electrostatic Sensor/Histograms.xlsx
+++ b/Testing/Electrostatic Sensor/Histograms.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parth\Desktop\ash test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth\Documents\volcanic-ash-uav\Testing\Electrostatic Sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Bin</t>
   </si>
@@ -70,11 +70,20 @@
   <si>
     <t>Sum</t>
   </si>
+  <si>
+    <t>10 mg/m^3</t>
+  </si>
+  <si>
+    <t>47 mg/m^3</t>
+  </si>
+  <si>
+    <t>6 mg/m^3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +171,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -206,7 +215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -356,6 +364,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93F8-4B20-B80C-C47E3AC45B5F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -470,6 +483,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93F8-4B20-B80C-C47E3AC45B5F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -601,7 +619,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -669,7 +686,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -713,7 +730,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -863,6 +879,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B19F-437D-A507-5BE257846E27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -977,6 +998,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B19F-437D-A507-5BE257846E27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1108,7 +1134,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1176,7 +1201,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1220,7 +1245,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1370,6 +1394,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA2A-43F9-8A67-B53AAECDBCBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1484,6 +1513,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA2A-43F9-8A67-B53AAECDBCBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1615,7 +1649,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1683,7 +1716,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1722,7 +1755,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1768,7 +1800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Difference</c:v>
+                  <c:v>10 mg/m^3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1872,6 +1904,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4C4-403B-9C1F-6C032ADC36A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2039,7 +2076,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2097,7 +2134,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2261,6 +2297,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-490C-401D-A11C-2D7B6A0EA084}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2428,7 +2469,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2486,7 +2527,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2546,7 +2586,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Difference</c:v>
+                  <c:v>6 mg/m^3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2650,6 +2690,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37D5-4793-BF1F-F7C2483EB5C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2817,7 +2862,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2861,7 +2906,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3011,6 +3055,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D12B-45F4-8BAC-2CACBFF10579}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3125,6 +3174,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D12B-45F4-8BAC-2CACBFF10579}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3256,7 +3310,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3324,7 +3377,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3382,7 +3435,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3442,7 +3494,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Difference</c:v>
+                  <c:v>47 mg/m^3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3546,6 +3598,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE1B-4B1E-9451-3282903576B2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3675,6 +3732,688 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Diffrence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> in </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>ADC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> count between ash and no ash at different concentrations </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 mg/m^3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93CD-4922-9C7B-30DF8085BFA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 mg/m^3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$55:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-93CD-4922-9C7B-30DF8085BFA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47 mg/m^3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-93CD-4922-9C7B-30DF8085BFA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="344276056"/>
+        <c:axId val="344277368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="344276056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>ADC Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344277368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344277368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>ADC COunt</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344276056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4032,6 +4771,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7554,6 +8333,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8298,6 +9580,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8377,6 +9689,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8412,6 +9741,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8564,17 +9910,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="C63" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8599,7 +9945,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8817,7 +10163,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9250,7 +10596,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9444,6 +10790,66 @@
       <c r="C67">
         <f>SUM(C55:C66)</f>
         <v>1001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Electrostatic Sensor/Histograms.xlsx
+++ b/Testing/Electrostatic Sensor/Histograms.xlsx
@@ -3804,7 +3804,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Diffrence</a:t>
+              <a:t>Difference</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
@@ -9912,8 +9912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C63" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
